--- a/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS_01_2021.xlsx
+++ b/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS_01_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Project-Management\Tools\RoadmapUpdate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlc47243\Documents\mantid-development\mantid-docs\documents\Project-Management\Tools\RoadmapUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C8">
         <f>COUNTIF(issues!$C:$C,assignees!A8)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C9">
         <f>COUNTIF(issues!$C:$C,assignees!A9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C10">
         <f>COUNTIF(issues!$C:$C,assignees!A10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">

--- a/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS_01_2021.xlsx
+++ b/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS_01_2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="27765" windowHeight="17535"/>
+    <workbookView xWindow="1033" yWindow="467" windowWidth="27767" windowHeight="17533"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" r:id="rId1"/>
@@ -1143,18 +1143,18 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="72.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.87890625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1195,15 +1195,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,10 +1235,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1257,7 +1257,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[issue_templateupdate.xlsx]assignees!#REF!</xm:f>
@@ -1268,7 +1268,13 @@
           <x14:formula1>
             <xm:f>assignees!$A$4:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10</xm:sqref>
+          <xm:sqref>C2:C4 C6:C8 C10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>assignees!$A$4:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5 C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1281,16 +1287,16 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD15"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1382,10 +1388,10 @@
       </c>
       <c r="C8">
         <f>COUNTIF(issues!$C:$C,assignees!A8)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>75</v>
       </c>
@@ -1445,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1541,67 +1547,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <f>COUNTIF(issues!$C:$C,assignees!A22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <f>COUNTIF(issues!$C:$C,assignees!A23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <f>COUNTIF(issues!$C:$C,assignees!A24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <f>COUNTIF(issues!$C:$C,assignees!A25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <f>COUNTIF(issues!$C:$C,assignees!A26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>44</v>
       </c>

--- a/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS_01_2021.xlsx
+++ b/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS_01_2021.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlc47243\Documents\mantid-development\mantid-docs\documents\Project-Management\Tools\RoadmapUpdate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmn58364/Code/git/mantidproject/documents/Project-Management/Tools/RoadmapUpdate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49BEA63-035C-6740-AE5F-6375D1C4C338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1033" yWindow="467" windowWidth="27767" windowHeight="17533"/>
+    <workbookView xWindow="44200" yWindow="2100" windowWidth="27760" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" r:id="rId1"/>
     <sheet name="assignees" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issues!$C$1:$C$30</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
   <si>
     <t>Title</t>
   </si>
@@ -44,36 +46,9 @@
     <t>Assignee</t>
   </si>
   <si>
-    <t>Unscripted Testing Live Data ORNL</t>
-  </si>
-  <si>
-    <t>Unscripted Testing SCD event data reduction</t>
-  </si>
-  <si>
-    <t>Unscripted Testing DGSReduction</t>
-  </si>
-  <si>
-    <t>Unscripted Testing QECoverage</t>
-  </si>
-  <si>
-    <t>Unscripted Testing ORNL HFIR diffraction &amp; 4Circle</t>
-  </si>
-  <si>
-    <t>Unscripted Testing ORNL SANS</t>
-  </si>
-  <si>
-    <t>Unscripted Testing DynamicPDF</t>
-  </si>
-  <si>
-    <t>Unscripted Testing Step scan analysis</t>
-  </si>
-  <si>
     <t>See http://www.mantidproject.org/Step_Scan_Interface</t>
   </si>
   <si>
-    <t>Unscripted Testing ORNL Powder Diffraction</t>
-  </si>
-  <si>
     <t>See http://www.mantidproject.org/PowderDiffractionReduction</t>
   </si>
   <si>
@@ -143,34 +118,16 @@
     <t>Steven Hahn</t>
   </si>
   <si>
-    <t>ricleal</t>
-  </si>
-  <si>
-    <t>Ricardo Ferraz Leal</t>
-  </si>
-  <si>
     <t>rosswhitfield</t>
   </si>
   <si>
     <t>Ross Whitfield</t>
   </si>
   <si>
-    <t>SimonHeybrock</t>
-  </si>
-  <si>
-    <t>Simon Heybrock</t>
-  </si>
-  <si>
     <t>wdzhou</t>
   </si>
   <si>
     <t>Wenduo Zhou</t>
-  </si>
-  <si>
-    <t>yxqd</t>
-  </si>
-  <si>
-    <t>Jiao</t>
   </si>
   <si>
     <t>Login</t>
@@ -183,12 +140,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>DTasev</t>
-  </si>
-  <si>
-    <t>Dimitar Tasev</t>
-  </si>
-  <si>
     <t>Pasarus</t>
   </si>
   <si>
@@ -246,27 +197,9 @@
     <t>Anthony Lim</t>
   </si>
   <si>
-    <t>clayton-tom</t>
-  </si>
-  <si>
-    <t>Tom Clayton</t>
-  </si>
-  <si>
-    <t>rprospero</t>
-  </si>
-  <si>
-    <t>Adam Washington</t>
-  </si>
-  <si>
     <t>tolu28-coder</t>
   </si>
   <si>
-    <t>Matt-Cumber</t>
-  </si>
-  <si>
-    <t>Matthew Cumber</t>
-  </si>
-  <si>
     <t>Toluwalase Agoro</t>
   </si>
   <si>
@@ -274,12 +207,215 @@
   </si>
   <si>
     <t>Joseph Torsney</t>
+  </si>
+  <si>
+    <t>Manual Testing ISIS Indirect interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the directions at: https://developer.mantidproject.org/Testing/IndirectInelastic/IndirectInelasticAcceptanceTests.html
+</t>
+  </si>
+  <si>
+    <t>Manual Testing Documentation</t>
+  </si>
+  <si>
+    <t>In the build directory run `cmake docs-html` 
+Check in the `docs/html` directoy:
+* Algorithm, fit, concept and api pages should be generated
+* Algorithm dialog snapshots should appear on algorithm pages in offline help
+* Math formulae should appear on algorithm pages in offline help
+* workflow diagrams should appear on algorithm pages in offline help
+You may wish to use this script: [OpenMostDocumentationForTesting.py](https://github.com/mantidproject/mantid/blob/master/tools/scripts/OpenMostDocumentationForTesting.py) to open all the online docs pages!</t>
+  </si>
+  <si>
+    <t>Manual Testing Workbench Group 1</t>
+  </si>
+  <si>
+    <t>https://developer.mantidproject.org/Testing/Core/Core.html</t>
+  </si>
+  <si>
+    <t>Manual Testing Workbench Group 2</t>
+  </si>
+  <si>
+    <t>Manual Testing Workbench Group 3</t>
+  </si>
+  <si>
+    <t>Manual Testing Workbench Group 4</t>
+  </si>
+  <si>
+    <t>Manual Testing Muon</t>
+  </si>
+  <si>
+    <t>See instructions at https://developer.mantidproject.org/Testing/MuonAnalysis_test_guides/index.html
+https://developer.mantidproject.org/Testing/MuonInterface/MuonTesting.html</t>
+  </si>
+  <si>
+    <t>Manual Testing TOFConverter</t>
+  </si>
+  <si>
+    <t>Make sure that inputs and outputs work sensibly, stress test with some bad inputs (e.g. letters in a numeric input)
+See https://docs.mantidproject.org/interfaces/TOF%20Converter.html</t>
+  </si>
+  <si>
+    <t>Manual Testing FilterEvents</t>
+  </si>
+  <si>
+    <t>Manual Testing Engineering Diffraction</t>
+  </si>
+  <si>
+    <t>Follow: https://developer.mantidproject.org/Testing/EngineeringDiffraction/EngineeringDiffractionTestGuide.html</t>
+  </si>
+  <si>
+    <t>Manual Testing Workspace Groups</t>
+  </si>
+  <si>
+    <t>* Follow the examples at http://docs.mantidproject.org/nightly/concepts/WorkspaceGroup.html 
+* Ensure MantidWorkbench displays Group Workspaces correctly in the workspace tree</t>
+  </si>
+  <si>
+    <t>Manual Testing Sample Transmission calculator</t>
+  </si>
+  <si>
+    <t>Make sure that inputs and outputs work sensibly, stress test with some bad inputs (e.g. letters in a numeric input)
+See https://docs.mantidproject.org/interfaces/SampleTransmissionCalculator.html</t>
+  </si>
+  <si>
+    <t>Manual Testing ISIS Reflectometry</t>
+  </si>
+  <si>
+    <t>For testing procedures see http://developer.mantidproject.org/Testing/ReflectometryGUI/ReflectometryGUITests.html</t>
+  </si>
+  <si>
+    <t>Manual Testing ISIS SANS (new GUI)</t>
+  </si>
+  <si>
+    <t>See https://developer.mantidproject.org/Testing/SANSGUI/SANSGUITests.html</t>
+  </si>
+  <si>
+    <t>Manual Testing Live Data ISIS</t>
+  </si>
+  <si>
+    <t>See https://developer.mantidproject.org/Testing/LiveData/LiveDataTests.html</t>
+  </si>
+  <si>
+    <t>Manual Testing Mantid Basics Course</t>
+  </si>
+  <si>
+    <t>* Build a docs-html target of Mantid
+* Build docs-qtassistant and docs-qthelp so that autogenerated plots are available
+* Check against the online documentation (http://docs.mantidproject.org/nightly/tutorials/mantid_basic_course/index.html#mantid-basic-course)
+* Open up the basic course (docs/html/tutorials/mantid_basic_course/index.html)
+* Check that the pages in there make sense</t>
+  </si>
+  <si>
+    <t>Manual Testing M-slice</t>
+  </si>
+  <si>
+    <t>See https://mantidproject.github.io/mslice/ and follow Quick Start, this should probably be tested in iDAaaS</t>
+  </si>
+  <si>
+    <t>Manual Testing Project Recovery</t>
+  </si>
+  <si>
+    <t>http://developer.mantidproject.org/Testing/ErrorReporter-ProjectRecovery/ProjectRecoveryTesting.html</t>
+  </si>
+  <si>
+    <t>Manual Testing Error Reporter</t>
+  </si>
+  <si>
+    <t>http://developer.mantidproject.org/Testing/ErrorReporter-ProjectRecovery/ErrorReporterTesting.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manual Testing Sliceviewer</t>
+  </si>
+  <si>
+    <t>Test for both MDEvent and MDHisto workspaces: Briefly I tested for both MDEvent and MDHisto workspaces:
+[ ] 1. Viewing 2D,3D and 4D MD data - (changing bins and sliders, color limits, colormap etc.)
+[ ] 2. Panning, home, Zooming/Dynamic rebinning - both by selecting region with mouse and scrolling
+[ ] 3. Toggling tracking of cursor
+[ ] 4. Toggle gridlines
+[ ] 5. Experiment with line plots and box integration (disabled fro non-orthogonal data)
+[ ] 6. Changing viewing axes
+[ ] 7. Peak overlay (multiple peaks workspaces, integrated peaks, sorting table, zooming on peaks, changing axes with peaks shown, peak overlay should not be shown for 2D data)
+[ ] 8. Repeat (1-7) for data with non-orthogonal axes
+[ ] 9. Play around with window - resizing, adjusting peak table size
+[ ] 10. Saving plot
+[ ] 11. Delete/rename underlying workspaces (at present sliceviewer does not update)</t>
+  </si>
+  <si>
+    <t>Manual Testing Live Data ORNL</t>
+  </si>
+  <si>
+    <t>Manual Testing SCD event data reduction</t>
+  </si>
+  <si>
+    <t>Manual Testing DGSReduction</t>
+  </si>
+  <si>
+    <t>Manual Testing QECoverage</t>
+  </si>
+  <si>
+    <t>Manual Testing ORNL HFIR diffraction &amp; 4Circle</t>
+  </si>
+  <si>
+    <t>Manual Testing ORNL SANS</t>
+  </si>
+  <si>
+    <t>Manual Testing DynamicPDF</t>
+  </si>
+  <si>
+    <t>Manual Testing Step scan analysis</t>
+  </si>
+  <si>
+    <t>Manual Testing ORNL Powder Diffraction</t>
+  </si>
+  <si>
+    <t>Sarah Foxley</t>
+  </si>
+  <si>
+    <t>sf1919</t>
+  </si>
+  <si>
+    <t>thomashampson</t>
+  </si>
+  <si>
+    <t>Tom Hampson</t>
+  </si>
+  <si>
+    <t>Silke Schomann</t>
+  </si>
+  <si>
+    <t>SilkeSchomann</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>small/medium</t>
+  </si>
+  <si>
+    <t>very large</t>
+  </si>
+  <si>
+    <t>very small</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,8 +553,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -721,7 +858,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -764,6 +901,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -774,16 +912,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -817,6 +955,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -838,19 +977,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="assignees"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,6 +1055,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -964,6 +1107,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1139,22 +1299,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E11" sqref="E11:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72.703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.87890625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1171875" style="1"/>
+    <col min="2" max="2" width="72.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1165,116 +1325,374 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="E21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
+      <c r="E24" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" display="https://developer.mantidproject.org/Testing/IndirectInelastic/IndirectInelasticAcceptanceTests.html" xr:uid="{CCB83FE1-30B1-3B4B-AF73-453B3071DDBC}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{0ADD15AD-7550-5446-8C4B-8E3C93BF3364}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{895D263C-7645-D449-8F71-57CCC820816D}"/>
+    <hyperlink ref="B15" r:id="rId4" xr:uid="{CFFC6E50-3D61-424D-B5EE-B06DE10ECBFA}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{0FD3362B-9AAB-4547-9A5C-57E399F54776}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B0240A5-85EE-294D-8AC1-4397218B8785}">
           <x14:formula1>
-            <xm:f>[issue_templateupdate.xlsx]assignees!#REF!</xm:f>
+            <xm:f>assignees!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>C11:C17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>assignees!$A$4:$A$21</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C4 C6:C8 C10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>assignees!$A$4:$A$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5 C9</xm:sqref>
+          <xm:sqref>C2:C30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1283,151 +1701,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <f>COUNTIF(issues!$C:$C,assignees!A2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3">
         <f>COUNTIF(issues!$C:$C,assignees!A3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <f>COUNTIF(issues!$C:$C,assignees!A4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <f>COUNTIF(issues!$C:$C,assignees!A5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <f>COUNTIF(issues!$C:$C,assignees!A6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <f>COUNTIF(issues!$C:$C,assignees!A7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <f>COUNTIF(issues!$C:$C,assignees!A8)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <f>COUNTIF(issues!$C:$C,assignees!A9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <f>COUNTIF(issues!$C:$C,assignees!A10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <f>COUNTIF(issues!$C:$C,assignees!A11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1439,237 +1857,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>76</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
       </c>
       <c r="C13">
         <f>COUNTIF(issues!$C:$C,assignees!A13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <f>COUNTIF(issues!$C:$C,assignees!A14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
       </c>
       <c r="C15">
         <f>COUNTIF(issues!$C:$C,assignees!A15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <f>COUNTIF(issues!$C:$C,assignees!A16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <f>COUNTIF(issues!$C:$C,assignees!A17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <f>COUNTIF(issues!$C:$C,assignees!A18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <f>COUNTIF(issues!$C:$C,assignees!A19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <f>COUNTIF(issues!$C:$C,assignees!A20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <f>COUNTIF(issues!$C:$C,assignees!A21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <f>COUNTIF(issues!$C:$C,assignees!A22)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <f>COUNTIF(issues!$C:$C,assignees!A23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <f>COUNTIF(issues!$C:$C,assignees!A24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <f>COUNTIF(issues!$C:$C,assignees!A25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C26">
         <f>COUNTIF(issues!$C:$C,assignees!A26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C27">
         <f>COUNTIF(issues!$C:$C,assignees!A27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <f>COUNTIF(issues!$C:$C,assignees!A28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29">
-        <f>COUNTIF(issues!$C:$C,assignees!A29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30">
-        <f>COUNTIF(issues!$C:$C,assignees!A30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31">
-        <f>COUNTIF(issues!$C:$C,assignees!A31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:C16">
-    <sortCondition descending="1" ref="C4:C27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C12">
+    <sortCondition descending="1" ref="C3:C23"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
